--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44782</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43801</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24777,7 +24777,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25357,7 +25357,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44782</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43801</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -735,6 +735,7 @@
 Spillkråka
 Tretåig hackspett
 Ullticka
+Vaddporing
 Vedskivlav
 Dropptaggsvamp
 Luddlav
@@ -776,7 +777,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +878,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +977,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1074,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1165,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1261,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1355,7 +1356,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1451,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1546,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1640,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1732,7 +1733,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1825,7 +1826,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1919,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2011,7 +2012,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2103,7 +2104,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2191,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2283,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2374,7 +2375,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2465,7 +2466,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2551,7 +2552,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2638,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2728,7 +2729,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2819,7 +2820,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2910,7 +2911,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3001,7 +3002,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3086,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,7 +3267,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3356,7 +3357,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3447,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3537,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3621,7 +3622,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3712,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3801,7 +3802,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3891,7 +3892,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3981,7 +3982,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4071,7 +4072,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4161,7 +4162,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4251,7 +4252,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4336,7 +4337,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4426,7 +4427,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4516,7 +4517,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,7 +4607,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4696,7 +4697,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4786,7 +4787,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4876,7 +4877,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4934,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4990,7 +4991,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5047,7 +5048,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5104,7 +5105,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5161,7 +5162,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5218,7 +5219,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5275,7 +5276,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5337,7 +5338,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5399,7 +5400,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5461,7 +5462,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5518,7 +5519,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5575,7 +5576,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5632,7 +5633,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5689,7 +5690,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5751,7 +5752,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5808,7 +5809,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5865,7 +5866,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5922,7 +5923,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5979,7 +5980,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6036,7 +6037,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6098,7 +6099,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6155,7 +6156,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6212,7 +6213,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6269,7 +6270,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6326,7 +6327,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6383,7 +6384,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6440,7 +6441,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6502,7 +6503,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6564,7 +6565,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6621,7 +6622,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6683,7 +6684,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6745,7 +6746,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6807,7 +6808,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6869,7 +6870,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6931,7 +6932,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6988,7 +6989,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7050,7 +7051,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7107,7 +7108,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7169,7 +7170,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7231,7 +7232,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7293,7 +7294,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7355,7 +7356,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7412,7 +7413,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7474,7 +7475,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7531,7 +7532,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7593,7 +7594,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7655,7 +7656,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7717,7 +7718,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7779,7 +7780,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7841,7 +7842,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7903,7 +7904,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7960,7 +7961,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8022,7 +8023,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8079,7 +8080,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8141,7 +8142,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8203,7 +8204,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8265,7 +8266,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8322,7 +8323,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8379,7 +8380,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8441,7 +8442,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8503,7 +8504,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8560,7 +8561,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8617,7 +8618,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8674,7 +8675,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8731,7 +8732,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8788,7 +8789,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8850,7 +8851,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8907,7 +8908,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8969,7 +8970,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9031,7 +9032,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9093,7 +9094,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9150,7 +9151,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9212,7 +9213,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9269,7 +9270,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9331,7 +9332,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9393,7 +9394,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9455,7 +9456,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9517,7 +9518,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9574,7 +9575,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9631,7 +9632,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9688,7 +9689,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9750,7 +9751,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9807,7 +9808,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9864,7 +9865,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9921,7 +9922,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9978,7 +9979,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10035,7 +10036,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10097,7 +10098,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10159,7 +10160,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10221,7 +10222,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10283,7 +10284,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10345,7 +10346,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10407,7 +10408,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10469,7 +10470,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10531,7 +10532,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10593,7 +10594,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10650,7 +10651,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10712,7 +10713,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10774,7 +10775,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10831,7 +10832,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10888,7 +10889,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10945,7 +10946,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11007,7 +11008,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11064,7 +11065,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11121,7 +11122,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11178,7 +11179,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11235,7 +11236,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11297,7 +11298,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11354,7 +11355,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11416,7 +11417,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11478,7 +11479,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11535,7 +11536,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11592,7 +11593,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11649,7 +11650,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11706,7 +11707,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11768,7 +11769,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11825,7 +11826,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11882,7 +11883,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11939,7 +11940,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11996,7 +11997,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12058,7 +12059,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12120,7 +12121,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12182,7 +12183,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12239,7 +12240,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12296,7 +12297,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12353,7 +12354,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12415,7 +12416,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12472,7 +12473,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12534,7 +12535,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12596,7 +12597,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12653,7 +12654,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12715,7 +12716,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12772,7 +12773,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12829,7 +12830,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12891,7 +12892,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12953,7 +12954,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13015,7 +13016,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13077,7 +13078,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13134,7 +13135,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13191,7 +13192,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13253,7 +13254,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13310,7 +13311,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13367,7 +13368,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13424,7 +13425,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13481,7 +13482,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13538,7 +13539,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13595,7 +13596,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13653,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13715,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13777,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13839,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13901,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13962,7 +13963,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14019,7 +14020,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14076,7 +14077,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14133,7 +14134,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14195,7 +14196,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14257,7 +14258,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14319,7 +14320,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14381,7 +14382,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14438,7 +14439,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14495,7 +14496,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14552,7 +14553,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14614,7 +14615,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14671,7 +14672,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14733,7 +14734,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14795,7 +14796,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14857,7 +14858,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14914,7 +14915,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14976,7 +14977,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15038,7 +15039,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15095,7 +15096,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15157,7 +15158,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15219,7 +15220,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15281,7 +15282,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15343,7 +15344,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15405,7 +15406,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15467,7 +15468,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15529,7 +15530,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15591,7 +15592,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15653,7 +15654,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15715,7 +15716,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15777,7 +15778,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15839,7 +15840,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15901,7 +15902,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15964,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16021,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16082,7 +16083,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16144,7 +16145,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16206,7 +16207,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16268,7 +16269,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16325,7 +16326,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16387,7 +16388,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16449,7 +16450,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16511,7 +16512,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16573,7 +16574,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16635,7 +16636,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16697,7 +16698,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16759,7 +16760,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16821,7 +16822,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16883,7 +16884,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16945,7 +16946,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17007,7 +17008,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17069,7 +17070,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17131,7 +17132,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17193,7 +17194,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17255,7 +17256,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17312,7 +17313,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17374,7 +17375,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17431,7 +17432,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17488,7 +17489,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17545,7 +17546,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17607,7 +17608,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17669,7 +17670,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17731,7 +17732,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17788,7 +17789,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17850,7 +17851,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17912,7 +17913,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17974,7 +17975,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18036,7 +18037,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18098,7 +18099,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18160,7 +18161,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18222,7 +18223,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18279,7 +18280,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18341,7 +18342,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18398,7 +18399,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18460,7 +18461,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18522,7 +18523,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18579,7 +18580,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18642,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18703,7 +18704,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18765,7 +18766,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18827,7 +18828,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18889,7 +18890,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18951,7 +18952,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19013,7 +19014,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19075,7 +19076,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19137,7 +19138,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19194,7 +19195,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19256,7 +19257,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19318,7 +19319,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19380,7 +19381,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19442,7 +19443,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19499,7 +19500,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19556,7 +19557,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19618,7 +19619,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19680,7 +19681,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19742,7 +19743,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19804,7 +19805,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19866,7 +19867,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19923,7 +19924,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19985,7 +19986,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20047,7 +20048,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20109,7 +20110,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20171,7 +20172,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20233,7 +20234,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20295,7 +20296,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20357,7 +20358,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20419,7 +20420,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20476,7 +20477,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20538,7 +20539,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20595,7 +20596,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20652,7 +20653,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20714,7 +20715,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20776,7 +20777,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20838,7 +20839,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20900,7 +20901,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20957,7 +20958,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21014,7 +21015,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21071,7 +21072,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21128,7 +21129,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21185,7 +21186,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21247,7 +21248,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21309,7 +21310,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21366,7 +21367,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21423,7 +21424,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21480,7 +21481,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21537,7 +21538,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21599,7 +21600,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21661,7 +21662,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21718,7 +21719,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21775,7 +21776,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21837,7 +21838,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21894,7 +21895,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21951,7 +21952,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22013,7 +22014,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22070,7 +22071,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22127,7 +22128,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22184,7 +22185,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22241,7 +22242,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22298,7 +22299,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22355,7 +22356,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22412,7 +22413,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22469,7 +22470,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22531,7 +22532,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22588,7 +22589,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22645,7 +22646,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22707,7 +22708,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22769,7 +22770,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22831,7 +22832,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22888,7 +22889,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22945,7 +22946,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23002,7 +23003,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23059,7 +23060,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23116,7 +23117,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23173,7 +23174,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23230,7 +23231,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23287,7 +23288,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23349,7 +23350,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23411,7 +23412,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23473,7 +23474,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23535,7 +23536,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23597,7 +23598,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23659,7 +23660,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23716,7 +23717,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23773,7 +23774,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23835,7 +23836,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23892,7 +23893,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23954,7 +23955,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24016,7 +24017,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24078,7 +24079,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24135,7 +24136,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24192,7 +24193,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24254,7 +24255,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24311,7 +24312,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24373,7 +24374,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24430,7 +24431,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24487,7 +24488,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24544,7 +24545,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24601,7 +24602,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24658,7 +24659,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24715,7 +24716,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24777,7 +24778,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24834,7 +24835,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24896,7 +24897,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24953,7 +24954,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25015,7 +25016,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25072,7 +25073,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25129,7 +25130,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25186,7 +25187,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25243,7 +25244,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25300,7 +25301,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25357,7 +25358,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25414,7 +25415,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25476,7 +25477,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25538,7 +25539,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25600,7 +25601,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25662,7 +25663,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25724,7 +25725,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25786,7 +25787,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25848,7 +25849,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25910,7 +25911,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25967,7 +25968,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26029,7 +26030,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26091,7 +26092,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26153,7 +26154,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26215,7 +26216,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26277,7 +26278,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26334,7 +26335,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26396,7 +26397,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26453,7 +26454,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26510,7 +26511,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26572,7 +26573,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26634,7 +26635,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26696,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26753,7 +26754,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26815,7 +26816,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26877,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26939,7 +26940,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27001,7 +27002,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27063,7 +27064,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27125,7 +27126,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27182,7 +27183,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27244,7 +27245,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27301,7 +27302,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27363,7 +27364,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27420,7 +27421,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27477,7 +27478,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27534,7 +27535,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27596,7 +27597,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27653,7 +27654,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27710,7 +27711,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27772,7 +27773,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27829,7 +27830,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27891,7 +27892,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27948,7 +27949,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28005,7 +28006,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28067,7 +28068,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28130,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28186,7 +28187,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28243,7 +28244,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28305,7 +28306,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28362,7 +28363,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28419,7 +28420,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28476,7 +28477,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28533,7 +28534,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28590,7 +28591,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28652,7 +28653,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28709,7 +28710,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28766,7 +28767,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28828,7 +28829,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28890,7 +28891,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28947,7 +28948,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29004,7 +29005,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29066,7 +29067,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44782</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43801</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44782</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43801</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44782</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43801</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22014,7 +22014,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26878,7 +26878,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -565,64 +565,169 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A 64788-2019</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43801</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Mjölsvärting
+Mörk kolflarnlav
+Rosenticka
+Spillkråka
+Tretåig hackspett
+Ullticka
+Vaddporing
+Vedskivlav
+Dropptaggsvamp
+Luddlav
+Trådticka</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 64788-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 64788-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 64788-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 64788-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 64788-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 64788-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>A 32529-2022</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3" s="1" t="n">
         <v>44782</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ÅSELE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="C3" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>13.6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>9</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>12</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>14</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Storspov
 Tornseglare
@@ -640,133 +745,31 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32529-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32529-2022.png")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32529-2022.docx")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32529-2022.docx")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32529-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32529-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 64788-2019</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>43801</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ÅSELE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp
-Dvärgbägarlav
-Garnlav
-Mörk kolflarnlav
-Rosenticka
-Spillkråka
-Tretåig hackspett
-Ullticka
-Vaddporing
-Vedskivlav
-Dropptaggsvamp
-Luddlav
-Trådticka</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 64788-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 64788-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 64788-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 64788-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 64788-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 64788-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -777,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2012,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2283,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2552,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2729,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2820,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2911,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3537,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3622,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3712,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3802,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3892,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3982,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4162,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4252,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4337,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4517,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4607,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4697,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4787,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4877,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5105,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5162,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5219,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5276,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5338,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5462,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5519,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5576,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5633,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5690,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5752,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5809,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5866,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5923,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6037,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6213,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6327,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6384,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6441,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6503,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6684,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6808,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6932,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6989,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7051,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7108,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7170,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7232,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7294,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7475,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7532,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7594,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7656,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7718,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7780,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7842,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7904,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7961,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8023,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8080,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8142,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8204,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8266,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8323,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8380,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8442,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8504,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8561,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8618,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8675,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8732,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8789,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8851,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8908,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8970,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9032,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9094,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9151,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9213,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9270,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9332,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9394,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9456,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9518,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9575,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9632,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9689,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9751,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9808,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9865,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9922,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9979,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10036,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10098,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10160,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10222,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10284,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10346,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10408,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10470,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10532,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10594,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10651,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10713,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10775,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10832,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10889,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10946,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11008,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11065,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11122,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11179,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11236,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11298,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11355,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11417,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11479,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11536,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11593,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11650,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11707,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11769,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11826,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11883,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11940,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11997,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12059,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12121,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12183,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12240,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12297,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12354,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12416,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12473,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12535,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12597,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12654,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12716,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12773,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12830,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12892,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12954,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13016,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13078,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13135,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13192,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13254,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13311,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13368,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13425,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13482,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13539,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13596,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13653,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13715,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13777,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13839,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13901,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13963,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14020,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14077,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14134,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14196,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14258,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14320,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14382,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14439,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14496,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14553,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14615,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14672,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14734,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14796,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14858,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14915,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14977,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15039,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15096,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15158,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15220,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15282,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15344,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15406,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15468,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15530,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15592,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15654,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15716,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15778,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15840,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15902,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15964,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16021,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16083,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16145,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16207,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16269,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16326,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16388,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16450,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16512,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16574,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16636,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16698,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16760,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16822,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16884,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16946,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17008,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17070,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17132,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17194,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17256,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17313,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17375,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17432,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17489,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17546,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17608,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17670,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17732,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17789,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17851,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17913,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17975,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18037,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18099,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18161,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18223,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18280,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18342,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18399,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18461,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18523,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18580,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18704,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18766,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18828,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18890,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18952,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19014,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19076,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19138,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19195,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19257,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19319,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19381,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19443,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19500,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19557,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19619,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19681,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19743,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19805,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20048,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20110,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20172,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20234,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20296,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20358,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20420,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20477,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20539,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20596,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20653,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20715,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20777,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20839,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20901,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20958,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21015,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21072,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21129,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21186,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21248,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21310,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21367,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21424,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21481,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21538,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21600,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21662,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21719,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21776,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21838,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21895,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21952,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22014,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22071,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22128,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22185,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22242,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22299,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22356,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22413,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22470,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22532,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22589,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22646,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22708,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22770,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22832,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22889,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22946,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23003,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23060,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23117,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23174,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23231,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23288,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23350,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23412,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23474,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23536,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23598,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23660,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23717,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23774,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23836,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23893,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23955,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24017,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24079,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24136,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24193,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24255,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24312,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24374,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24431,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24488,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24545,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24602,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24659,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24716,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24778,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24835,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24897,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24954,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25016,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25073,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25130,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25187,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25244,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25301,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25358,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25415,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25477,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25539,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25601,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25663,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25725,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25787,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25849,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25911,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25968,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26030,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26092,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26154,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26216,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26278,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26335,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26397,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26454,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26511,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26573,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26635,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26697,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26754,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26816,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26878,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26940,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27002,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27064,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27126,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27183,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27245,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27302,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27364,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27421,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27478,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27535,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27597,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27654,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27711,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27773,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27830,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27892,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27949,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28006,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28068,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28130,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28187,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28244,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28306,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28363,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28420,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28477,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28534,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28591,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28653,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28710,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28767,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28829,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28891,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28948,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29005,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29067,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 64788-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 64788-2019.xlsx", "A 64788-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 64788-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 64788-2019.png", "A 64788-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 64788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 64788-2019.docx", "A 64788-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 64788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 64788-2019.docx", "A 64788-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 64788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 64788-2019.docx", "A 64788-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 64788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 64788-2019.docx", "A 64788-2019")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,27 +746,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32529-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32529-2022.xlsx", "A 32529-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32529-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32529-2022.png", "A 32529-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32529-2022.docx", "A 32529-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32529-2022.docx", "A 32529-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32529-2022.docx", "A 32529-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32529-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32529-2022.docx", "A 32529-2022")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,27 +847,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 31282-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 31282-2023.xlsx", "A 31282-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 31282-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 31282-2023.png", "A 31282-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 31282-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 31282-2023.docx", "A 31282-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 31282-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 31282-2023.docx", "A 31282-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 31282-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 31282-2023.docx", "A 31282-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 31282-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 31282-2023.docx", "A 31282-2023")</f>
         <v/>
       </c>
     </row>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,27 +946,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 5701-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 5701-2023.xlsx", "A 5701-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 5701-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 5701-2023.png", "A 5701-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 5701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 5701-2023.docx", "A 5701-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 5701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 5701-2023.docx", "A 5701-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 5701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 5701-2023.docx", "A 5701-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 5701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 5701-2023.docx", "A 5701-2023")</f>
         <v/>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,27 +1043,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 61272-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 61272-2018.xlsx", "A 61272-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 61272-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 61272-2018.png", "A 61272-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 61272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 61272-2018.docx", "A 61272-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 61272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 61272-2018.docx", "A 61272-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 61272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 61272-2018.docx", "A 61272-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 61272-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 61272-2018.docx", "A 61272-2018")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,27 +1134,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 56677-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 56677-2018.xlsx", "A 56677-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 56677-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 56677-2018.png", "A 56677-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 56677-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 56677-2018.docx", "A 56677-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 56677-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 56677-2018.docx", "A 56677-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 56677-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 56677-2018.docx", "A 56677-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 56677-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 56677-2018.docx", "A 56677-2018")</f>
         <v/>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,27 +1230,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 1881-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 1881-2021.xlsx", "A 1881-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 1881-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 1881-2021.png", "A 1881-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 1881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 1881-2021.docx", "A 1881-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 1881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 1881-2021.docx", "A 1881-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 1881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 1881-2021.docx", "A 1881-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 1881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 1881-2021.docx", "A 1881-2021")</f>
         <v/>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,27 +1325,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 930-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 930-2019.xlsx", "A 930-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 930-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 930-2019.png", "A 930-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 930-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 930-2019.docx", "A 930-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 930-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 930-2019.docx", "A 930-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 930-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 930-2019.docx", "A 930-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 930-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 930-2019.docx", "A 930-2019")</f>
         <v/>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,27 +1420,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 35558-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 35558-2019.xlsx", "A 35558-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 35558-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 35558-2019.png", "A 35558-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 35558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 35558-2019.docx", "A 35558-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 35558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 35558-2019.docx", "A 35558-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 35558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 35558-2019.docx", "A 35558-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 35558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 35558-2019.docx", "A 35558-2019")</f>
         <v/>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,27 +1515,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 54166-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 54166-2020.xlsx", "A 54166-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 54166-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 54166-2020.png", "A 54166-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 54166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 54166-2020.docx", "A 54166-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 54166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 54166-2020.docx", "A 54166-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 54166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 54166-2020.docx", "A 54166-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 54166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 54166-2020.docx", "A 54166-2020")</f>
         <v/>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,27 +1609,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 33768-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 33768-2020.xlsx", "A 33768-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 33768-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 33768-2020.png", "A 33768-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 33768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 33768-2020.docx", "A 33768-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 33768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 33768-2020.docx", "A 33768-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 33768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 33768-2020.docx", "A 33768-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 33768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 33768-2020.docx", "A 33768-2020")</f>
         <v/>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1702,27 +1702,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 54138-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 54138-2021.xlsx", "A 54138-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 54138-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 54138-2021.png", "A 54138-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 54138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 54138-2021.docx", "A 54138-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 54138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 54138-2021.docx", "A 54138-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 54138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 54138-2021.docx", "A 54138-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 54138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 54138-2021.docx", "A 54138-2021")</f>
         <v/>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1795,27 +1795,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 47682-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 47682-2022.xlsx", "A 47682-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 47682-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 47682-2022.png", "A 47682-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 47682-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 47682-2022.docx", "A 47682-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 47682-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 47682-2022.docx", "A 47682-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 47682-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 47682-2022.docx", "A 47682-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 47682-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 47682-2022.docx", "A 47682-2022")</f>
         <v/>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,27 +1888,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 49528-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 49528-2022.xlsx", "A 49528-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 49528-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 49528-2022.png", "A 49528-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 49528-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 49528-2022.docx", "A 49528-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 49528-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 49528-2022.docx", "A 49528-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 49528-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 49528-2022.docx", "A 49528-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 49528-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 49528-2022.docx", "A 49528-2022")</f>
         <v/>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,27 +1981,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 5700-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 5700-2023.xlsx", "A 5700-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 5700-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 5700-2023.png", "A 5700-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 5700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 5700-2023.docx", "A 5700-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 5700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 5700-2023.docx", "A 5700-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 5700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 5700-2023.docx", "A 5700-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 5700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 5700-2023.docx", "A 5700-2023")</f>
         <v/>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2073,27 +2073,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 50909-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 50909-2019.xlsx", "A 50909-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 50909-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 50909-2019.png", "A 50909-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 50909-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 50909-2019.docx", "A 50909-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 50909-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 50909-2019.docx", "A 50909-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 50909-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 50909-2019.docx", "A 50909-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 50909-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 50909-2019.docx", "A 50909-2019")</f>
         <v/>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2160,27 +2160,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 40209-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 40209-2021.xlsx", "A 40209-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 40209-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 40209-2021.png", "A 40209-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 40209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 40209-2021.docx", "A 40209-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 40209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 40209-2021.docx", "A 40209-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 40209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 40209-2021.docx", "A 40209-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 40209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 40209-2021.docx", "A 40209-2021")</f>
         <v/>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,27 +2252,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 5702-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 5702-2023.xlsx", "A 5702-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 5702-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 5702-2023.png", "A 5702-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 5702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 5702-2023.docx", "A 5702-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 5702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 5702-2023.docx", "A 5702-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 5702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 5702-2023.docx", "A 5702-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 5702-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 5702-2023.docx", "A 5702-2023")</f>
         <v/>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2344,27 +2344,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 22955-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 22955-2023.xlsx", "A 22955-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 22955-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 22955-2023.png", "A 22955-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 22955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 22955-2023.docx", "A 22955-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 22955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 22955-2023.docx", "A 22955-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 22955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 22955-2023.docx", "A 22955-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 22955-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 22955-2023.docx", "A 22955-2023")</f>
         <v/>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,27 +2435,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 62996-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 62996-2018.xlsx", "A 62996-2018")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 62996-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 62996-2018.png", "A 62996-2018")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 62996-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 62996-2018.docx", "A 62996-2018")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 62996-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 62996-2018.docx", "A 62996-2018")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 62996-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 62996-2018.docx", "A 62996-2018")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 62996-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 62996-2018.docx", "A 62996-2018")</f>
         <v/>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,27 +2521,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32445-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32445-2020.xlsx", "A 32445-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32445-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32445-2020.png", "A 32445-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32445-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32445-2020.docx", "A 32445-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32445-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32445-2020.docx", "A 32445-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32445-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32445-2020.docx", "A 32445-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32445-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32445-2020.docx", "A 32445-2020")</f>
         <v/>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2607,27 +2607,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 57315-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 57315-2020.xlsx", "A 57315-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 57315-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 57315-2020.png", "A 57315-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 57315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 57315-2020.docx", "A 57315-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 57315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 57315-2020.docx", "A 57315-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 57315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 57315-2020.docx", "A 57315-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 57315-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 57315-2020.docx", "A 57315-2020")</f>
         <v/>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2698,27 +2698,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 52665-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 52665-2022.xlsx", "A 52665-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 52665-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 52665-2022.png", "A 52665-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 52665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 52665-2022.docx", "A 52665-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 52665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 52665-2022.docx", "A 52665-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 52665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 52665-2022.docx", "A 52665-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 52665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 52665-2022.docx", "A 52665-2022")</f>
         <v/>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,27 +2789,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 10292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 10292-2023.xlsx", "A 10292-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 10292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 10292-2023.png", "A 10292-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 10292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 10292-2023.docx", "A 10292-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 10292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 10292-2023.docx", "A 10292-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 10292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 10292-2023.docx", "A 10292-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 10292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 10292-2023.docx", "A 10292-2023")</f>
         <v/>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2880,27 +2880,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 10546-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 10546-2023.xlsx", "A 10546-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 10546-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 10546-2023.png", "A 10546-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 10546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 10546-2023.docx", "A 10546-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 10546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 10546-2023.docx", "A 10546-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 10546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 10546-2023.docx", "A 10546-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 10546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 10546-2023.docx", "A 10546-2023")</f>
         <v/>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2971,27 +2971,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 22845-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 22845-2023.xlsx", "A 22845-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 22845-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 22845-2023.png", "A 22845-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 22845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 22845-2023.docx", "A 22845-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 22845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 22845-2023.docx", "A 22845-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 22845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 22845-2023.docx", "A 22845-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 22845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 22845-2023.docx", "A 22845-2023")</f>
         <v/>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,27 +3056,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 63642-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 63642-2018.xlsx", "A 63642-2018")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 63642-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 63642-2018.png", "A 63642-2018")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 63642-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 63642-2018.docx", "A 63642-2018")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 63642-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 63642-2018.docx", "A 63642-2018")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 63642-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 63642-2018.docx", "A 63642-2018")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 63642-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 63642-2018.docx", "A 63642-2018")</f>
         <v/>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,27 +3146,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 72110-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 72110-2018.xlsx", "A 72110-2018")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 72110-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 72110-2018.png", "A 72110-2018")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 72110-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 72110-2018.docx", "A 72110-2018")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 72110-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 72110-2018.docx", "A 72110-2018")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 72110-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 72110-2018.docx", "A 72110-2018")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 72110-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 72110-2018.docx", "A 72110-2018")</f>
         <v/>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,27 +3236,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32370-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 32370-2019.xlsx", "A 32370-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32370-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 32370-2019.png", "A 32370-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32370-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 32370-2019.docx", "A 32370-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32370-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 32370-2019.docx", "A 32370-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32370-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 32370-2019.docx", "A 32370-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32370-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 32370-2019.docx", "A 32370-2019")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,27 +3326,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 35565-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 35565-2019.xlsx", "A 35565-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 35565-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 35565-2019.png", "A 35565-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 35565-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 35565-2019.docx", "A 35565-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 35565-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 35565-2019.docx", "A 35565-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 35565-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 35565-2019.docx", "A 35565-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 35565-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 35565-2019.docx", "A 35565-2019")</f>
         <v/>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3416,27 +3416,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 65562-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 65562-2019.xlsx", "A 65562-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 65562-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 65562-2019.png", "A 65562-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 65562-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 65562-2019.docx", "A 65562-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 65562-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 65562-2019.docx", "A 65562-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 65562-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 65562-2019.docx", "A 65562-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 65562-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 65562-2019.docx", "A 65562-2019")</f>
         <v/>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3506,27 +3506,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 11922-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 11922-2020.xlsx", "A 11922-2020")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 11922-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 11922-2020.png", "A 11922-2020")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 11922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 11922-2020.docx", "A 11922-2020")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 11922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 11922-2020.docx", "A 11922-2020")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 11922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 11922-2020.docx", "A 11922-2020")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 11922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 11922-2020.docx", "A 11922-2020")</f>
         <v/>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3591,27 +3591,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 19592-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 19592-2020.xlsx", "A 19592-2020")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 19592-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 19592-2020.png", "A 19592-2020")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 19592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 19592-2020.docx", "A 19592-2020")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 19592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 19592-2020.docx", "A 19592-2020")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 19592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 19592-2020.docx", "A 19592-2020")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 19592-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 19592-2020.docx", "A 19592-2020")</f>
         <v/>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3681,27 +3681,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 43813-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 43813-2020.xlsx", "A 43813-2020")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 43813-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 43813-2020.png", "A 43813-2020")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 43813-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 43813-2020.docx", "A 43813-2020")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 43813-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 43813-2020.docx", "A 43813-2020")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 43813-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 43813-2020.docx", "A 43813-2020")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 43813-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 43813-2020.docx", "A 43813-2020")</f>
         <v/>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3771,27 +3771,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 43837-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 43837-2020.xlsx", "A 43837-2020")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 43837-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 43837-2020.png", "A 43837-2020")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 43837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 43837-2020.docx", "A 43837-2020")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 43837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 43837-2020.docx", "A 43837-2020")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 43837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 43837-2020.docx", "A 43837-2020")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 43837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 43837-2020.docx", "A 43837-2020")</f>
         <v/>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,27 +3861,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 49843-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 49843-2020.xlsx", "A 49843-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 49843-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 49843-2020.png", "A 49843-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 49843-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 49843-2020.docx", "A 49843-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 49843-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 49843-2020.docx", "A 49843-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 49843-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 49843-2020.docx", "A 49843-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 49843-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 49843-2020.docx", "A 49843-2020")</f>
         <v/>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3951,27 +3951,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 35562-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 35562-2021.xlsx", "A 35562-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 35562-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 35562-2021.png", "A 35562-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 35562-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 35562-2021.docx", "A 35562-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 35562-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 35562-2021.docx", "A 35562-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 35562-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 35562-2021.docx", "A 35562-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 35562-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 35562-2021.docx", "A 35562-2021")</f>
         <v/>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4041,27 +4041,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 61850-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 61850-2021.xlsx", "A 61850-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 61850-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 61850-2021.png", "A 61850-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 61850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 61850-2021.docx", "A 61850-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 61850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 61850-2021.docx", "A 61850-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 61850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 61850-2021.docx", "A 61850-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 61850-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 61850-2021.docx", "A 61850-2021")</f>
         <v/>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,27 +4131,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 30809-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 30809-2022.xlsx", "A 30809-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 30809-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 30809-2022.png", "A 30809-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 30809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 30809-2022.docx", "A 30809-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 30809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 30809-2022.docx", "A 30809-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 30809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 30809-2022.docx", "A 30809-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 30809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 30809-2022.docx", "A 30809-2022")</f>
         <v/>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4221,27 +4221,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 39380-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 39380-2022.xlsx", "A 39380-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 39380-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 39380-2022.png", "A 39380-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 39380-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 39380-2022.docx", "A 39380-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 39380-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 39380-2022.docx", "A 39380-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 39380-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 39380-2022.docx", "A 39380-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 39380-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 39380-2022.docx", "A 39380-2022")</f>
         <v/>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4306,27 +4306,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 40328-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 40328-2022.xlsx", "A 40328-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 40328-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 40328-2022.png", "A 40328-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 40328-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 40328-2022.docx", "A 40328-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 40328-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 40328-2022.docx", "A 40328-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 40328-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 40328-2022.docx", "A 40328-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 40328-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 40328-2022.docx", "A 40328-2022")</f>
         <v/>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4396,27 +4396,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 49064-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 49064-2022.xlsx", "A 49064-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 49064-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 49064-2022.png", "A 49064-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 49064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 49064-2022.docx", "A 49064-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 49064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 49064-2022.docx", "A 49064-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 49064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 49064-2022.docx", "A 49064-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 49064-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 49064-2022.docx", "A 49064-2022")</f>
         <v/>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4486,27 +4486,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 62744-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 62744-2022.xlsx", "A 62744-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 62744-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 62744-2022.png", "A 62744-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 62744-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 62744-2022.docx", "A 62744-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 62744-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 62744-2022.docx", "A 62744-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 62744-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 62744-2022.docx", "A 62744-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 62744-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 62744-2022.docx", "A 62744-2022")</f>
         <v/>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4576,27 +4576,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 29318-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 29318-2023.xlsx", "A 29318-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 29318-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 29318-2023.png", "A 29318-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 29318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 29318-2023.docx", "A 29318-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 29318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 29318-2023.docx", "A 29318-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 29318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 29318-2023.docx", "A 29318-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 29318-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 29318-2023.docx", "A 29318-2023")</f>
         <v/>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4666,27 +4666,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 30615-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 30615-2023.xlsx", "A 30615-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 30615-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 30615-2023.png", "A 30615-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 30615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 30615-2023.docx", "A 30615-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 30615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 30615-2023.docx", "A 30615-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 30615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 30615-2023.docx", "A 30615-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 30615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 30615-2023.docx", "A 30615-2023")</f>
         <v/>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4756,27 +4756,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 31194-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 31194-2023.xlsx", "A 31194-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 31194-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 31194-2023.png", "A 31194-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 31194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 31194-2023.docx", "A 31194-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 31194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 31194-2023.docx", "A 31194-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 31194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 31194-2023.docx", "A 31194-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 31194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 31194-2023.docx", "A 31194-2023")</f>
         <v/>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4846,27 +4846,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 30947-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/artfynd/A 30947-2023.xlsx", "A 30947-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 30947-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/kartor/A 30947-2023.png", "A 30947-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 30947-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomål/A 30947-2023.docx", "A 30947-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 30947-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/klagomålsmail/A 30947-2023.docx", "A 30947-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 30947-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsyn/A 30947-2023.docx", "A 30947-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 30947-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ASELE/tillsynsmail/A 30947-2023.docx", "A 30947-2023")</f>
         <v/>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y454"/>
+  <dimension ref="A1:Y455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29060,7 +29060,7 @@
       </c>
       <c r="R453" s="2" t="inlineStr"/>
     </row>
-    <row r="454">
+    <row r="454" ht="15" customHeight="1">
       <c r="A454" t="inlineStr">
         <is>
           <t>A 39989-2023</t>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29116,6 +29116,63 @@
         <v>0</v>
       </c>
       <c r="R454" s="2" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>A 44677-2023</t>
+        </is>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C455" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>0</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R455" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y455"/>
+  <dimension ref="A1:Y457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
       </c>
       <c r="R454" s="2" t="inlineStr"/>
     </row>
-    <row r="455">
+    <row r="455" ht="15" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
           <t>A 44677-2023</t>
@@ -29127,7 +29127,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29173,6 +29173,130 @@
         <v>0</v>
       </c>
       <c r="R455" s="2" t="inlineStr"/>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>A 46224-2023</t>
+        </is>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C456" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>3</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N456" t="n">
+        <v>0</v>
+      </c>
+      <c r="O456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R456" s="2" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>A 46693-2023</t>
+        </is>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C457" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N457" t="n">
+        <v>0</v>
+      </c>
+      <c r="O457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R457" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y457"/>
+  <dimension ref="A1:Y458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>45196</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="R456" s="2" t="inlineStr"/>
     </row>
-    <row r="457">
+    <row r="457" ht="15" customHeight="1">
       <c r="A457" t="inlineStr">
         <is>
           <t>A 46693-2023</t>
@@ -29246,7 +29246,7 @@
         <v>45198</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29297,6 +29297,63 @@
         <v>0</v>
       </c>
       <c r="R457" s="2" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>A 47146-2023</t>
+        </is>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C458" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0</v>
+      </c>
+      <c r="O458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R458" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>45196</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45198</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>45201</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>45196</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45198</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>45201</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y458"/>
+  <dimension ref="A1:Y459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>45196</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45198</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
       </c>
       <c r="R457" s="2" t="inlineStr"/>
     </row>
-    <row r="458">
+    <row r="458" ht="15" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
           <t>A 47146-2023</t>
@@ -29308,7 +29308,7 @@
         <v>45201</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29354,6 +29354,68 @@
         <v>0</v>
       </c>
       <c r="R458" s="2" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>A 48081-2023</t>
+        </is>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C459" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>ÅSELE</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0</v>
+      </c>
+      <c r="O459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R459" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43801</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44960</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>43423</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>44210</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43472</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>43664</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         <v>44026</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44470</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44854</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         <v>44861</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43738</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>44960</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45072</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>44015</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44139</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44874</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44986</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44987</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43427</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43636</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43664</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43803</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>43888</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43936</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44082</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44106</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         <v>44385</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44764</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44817</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44823</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>44925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45105</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>43318</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43339</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43424</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43493</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>43500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>43501</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43507</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43510</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43516</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43536</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43544</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43585</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43614</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43664</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>43664</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43664</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43686</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43697</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43705</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43738</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43738</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43738</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43748</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43752</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43753</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>43755</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>43760</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43761</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43768</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43768</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43769</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>43787</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>43787</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>43794</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43803</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43803</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43805</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43818</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43841</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43843</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43843</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43859</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43924</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43936</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43936</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43961</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43970</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43980</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43980</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43983</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43987</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43993</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43993</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43993</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44004</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44007</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44026</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>44029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44029</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44029</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44029</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44029</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44050</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44054</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44060</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44071</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44078</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44082</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44082</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>44089</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>44089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44089</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>44089</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44090</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>44090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>44090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44090</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44106</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44106</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44106</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>44116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>44117</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44125</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44132</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>44132</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>44132</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>44133</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44134</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>44141</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44147</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44151</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44151</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44151</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44152</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44163</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44166</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44168</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44170</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44171</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44171</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44193</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>44195</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44195</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44207</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>44210</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44211</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44218</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44231</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44231</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44231</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44328</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44341</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44344</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44344</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44350</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44368</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44377</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44379</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44381</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44386</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44390</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44390</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44393</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44417</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44449</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44459</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44472</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44473</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44474</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44476</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44476</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44483</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44496</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44497</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44498</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44501</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44503</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>44503</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44505</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44505</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44505</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44510</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44512</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44524</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44526</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44530</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44551</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44585</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44652</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44652</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44662</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44678</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44687</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44694</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44697</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44698</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>44708</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>44711</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44713</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44719</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44722</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44728</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44739</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44747</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44750</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44754</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44755</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44761</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44761</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44761</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44770</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44774</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44776</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44781</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44781</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44783</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44795</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44795</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44798</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44799</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44803</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44807</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44813</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>44813</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44816</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44816</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>44826</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>44826</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44830</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44834</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44847</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44858</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44859</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44859</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>44859</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44860</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44860</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44866</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>44868</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44879</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44888</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44888</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21189,7 +21189,7 @@
         <v>44894</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44900</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44908</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44908</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44908</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44911</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21603,7 +21603,7 @@
         <v>44917</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>44936</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44936</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>44937</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44943</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44951</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>44952</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44952</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>44952</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>44953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>44958</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>44959</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44960</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44960</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44960</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44967</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44970</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44970</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44970</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44971</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>44973</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44984</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44985</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44986</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>44986</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44988</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44988</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45005</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45005</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45005</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>45009</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45014</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45014</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
         <v>45016</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45036</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45040</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45041</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45042</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45048</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45051</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45061</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45068</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45068</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45068</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45068</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45068</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45077</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45078</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45078</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45078</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45078</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45078</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45078</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>45079</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45079</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45079</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45084</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>45092</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45092</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45092</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45092</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45092</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45092</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45096</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45098</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45099</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45099</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45103</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45103</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45103</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>45103</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45103</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>45104</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45107</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45107</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45107</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45112</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45113</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45113</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45113</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45113</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45113</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45113</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45113</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45113</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>45114</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45114</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45117</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45119</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45119</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45120</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45120</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45121</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45126</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45140</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45147</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45147</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>45149</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>45160</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>45163</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45163</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45166</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45166</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45166</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45167</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>45196</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45198</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>45201</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>45204</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
